--- a/Pensiones descargas.xlsx
+++ b/Pensiones descargas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Documents\GitHub\Data_Pensiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FAFF6D-DD4F-401D-B187-C9A21C120496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F88FB0-1C48-453D-90B7-4CD687992035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="375" windowWidth="17325" windowHeight="9120" xr2:uid="{AAB7EEE5-16B0-4A15-B2CE-A229AE777882}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AAB7EEE5-16B0-4A15-B2CE-A229AE777882}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +268,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -281,11 +287,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336EAE83-D1AF-44DA-8805-F55C699E2EDC}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B31" sqref="B30:B31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,10 +1025,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>16</v>
       </c>
       <c r="C25" t="s">
@@ -1186,10 +1193,10 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="4">
         <v>9</v>
       </c>
       <c r="C37" t="s">

--- a/Pensiones descargas.xlsx
+++ b/Pensiones descargas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Documents\GitHub\Data_Pensiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F88FB0-1C48-453D-90B7-4CD687992035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FC7B84-0AF5-4ED6-AEC2-168703403920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AAB7EEE5-16B0-4A15-B2CE-A229AE777882}"/>
   </bookViews>
@@ -249,7 +249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,12 +268,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -287,12 +281,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336EAE83-D1AF-44DA-8805-F55C699E2EDC}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A37" sqref="A37:B37"/>
     </sheetView>
   </sheetViews>
@@ -1025,10 +1018,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="1">
         <v>16</v>
       </c>
       <c r="C25" t="s">
@@ -1193,10 +1186,10 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="1">
         <v>9</v>
       </c>
       <c r="C37" t="s">

--- a/Pensiones descargas.xlsx
+++ b/Pensiones descargas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Documents\GitHub\Data_Pensiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FC7B84-0AF5-4ED6-AEC2-168703403920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A5250C-0BC0-483A-B791-A9825D37E8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AAB7EEE5-16B0-4A15-B2CE-A229AE777882}"/>
   </bookViews>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336EAE83-D1AF-44DA-8805-F55C699E2EDC}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:B37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,10 +1130,10 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="1">
         <v>3</v>
       </c>
       <c r="C33" t="s">
@@ -1172,10 +1172,10 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="1">
         <v>2</v>
       </c>
       <c r="C36" t="s">
